--- a/ig/sd-typo-phase-3-et-4/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/sd-typo-phase-3-et-4/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T13:31:52+00:00</t>
+    <t>2023-09-15T13:38:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,10 +132,10 @@
     <t>phase-3-phase-4</t>
   </si>
   <si>
-    <t>Phase III and phase IV (Integrated)</t>
-  </si>
-  <si>
-    <t>Trials that are a combination of phases III and IV.</t>
+    <t>Phase 3 and phase 4</t>
+  </si>
+  <si>
+    <t>Trials that are a combination of phases 3 and 4.</t>
   </si>
 </sst>
 </file>

--- a/ig/sd-typo-phase-3-et-4/CodeSystem-eclaire-study-phase-code-system.xlsx
+++ b/ig/sd-typo-phase-3-et-4/CodeSystem-eclaire-study-phase-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T13:38:36+00:00</t>
+    <t>2023-09-15T13:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
